--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WORK\_BUILDS\Нестандартные сборки\Беляев\4070\DebugWin\Reports\Complaints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D299704C-0BD2-482C-AA2F-431FD7E8E161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D0D8D-9EAD-47F0-BC74-8841162D4BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$4:$R$5</definedName>
+    <definedName name="Rows">Лист1!$A$4:$S$5</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Отчёт по рекламациям</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>{{item.ResultOfEmployees}}</t>
+  </si>
+  <si>
+    <t>Детализация</t>
+  </si>
+  <si>
+    <t>{{item.ComplaintDetalizationString}}</t>
   </si>
 </sst>
 </file>
@@ -218,22 +224,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,11 +559,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMB5"/>
+  <dimension ref="A1:AMC5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -570,20 +574,20 @@
     <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="1016" width="10.6640625" style="1"/>
-    <col min="1017" max="1024" width="14.83203125" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="10.6640625" style="2"/>
+    <col min="10" max="11" width="24.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="38" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="17" style="1" customWidth="1"/>
+    <col min="20" max="1017" width="10.6640625" style="1"/>
+    <col min="1018" max="1025" width="14.83203125" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -594,18 +598,19 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -637,31 +642,34 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -693,33 +701,36 @@
         <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:19" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разные документы\Vodovoz\repo\vodovoz_01\Source\Applications\Desktop\Vodovoz\bin\DebugWin\Reports\Complaints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D0D8D-9EAD-47F0-BC74-8841162D4BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F97E82F-F377-478F-8051-0D62B1ABBA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -233,14 +233,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +561,9 @@
   </sheetPr>
   <dimension ref="A1:AMC5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -588,18 +590,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="3"/>
@@ -669,62 +671,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:19" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="8" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разные документы\Vodovoz\repo\vodovoz_01\Source\Applications\Desktop\Vodovoz\bin\DebugWin\Reports\Complaints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F97E82F-F377-478F-8051-0D62B1ABBA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D0D8D-9EAD-47F0-BC74-8841162D4BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -233,14 +233,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,9 +561,7 @@
   </sheetPr>
   <dimension ref="A1:AMC5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:S4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -590,18 +588,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="3"/>
@@ -671,62 +669,62 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:19" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="6" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D0D8D-9EAD-47F0-BC74-8841162D4BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCFB91-0758-4794-A91D-FBB387FF7328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$4:$S$5</definedName>
+    <definedName name="Rows">Лист1!$A$4:$T$5</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Отчёт по рекламациям</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>{{item.ComplaintDetalizationString}}</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>{{item.Driver}}</t>
   </si>
 </sst>
 </file>
@@ -559,9 +565,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMC5"/>
+  <dimension ref="A1:AMD5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -572,22 +580,22 @@
     <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="11" width="24.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.6640625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="17" style="1" customWidth="1"/>
-    <col min="20" max="1017" width="10.6640625" style="1"/>
-    <col min="1018" max="1025" width="14.83203125" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="10.6640625" style="2"/>
+    <col min="8" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="24.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="38" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.6640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="17" style="1" customWidth="1"/>
+    <col min="21" max="1018" width="10.6640625" style="1"/>
+    <col min="1019" max="1026" width="14.83203125" style="2" customWidth="1"/>
+    <col min="1027" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -599,18 +607,19 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -636,40 +645,43 @@
         <v>8</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -695,40 +707,43 @@
         <v>26</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Complaints/ComplaintsJournalReport.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vodovoz\repo\vodovoz_03\Source\Applications\Desktop\Vodovoz\bin\DebugWin\Reports\Complaints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCFB91-0758-4794-A91D-FBB387FF7328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958BDDFD-F6DE-4E5C-9473-ACA047B08557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$4:$T$5</definedName>
+    <definedName name="Rows">Лист1!$A$4:$U$5</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Отчёт по рекламациям</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>{{item.Driver}}</t>
+  </si>
+  <si>
+    <t>Автор результата</t>
+  </si>
+  <si>
+    <t>{{item.ResultCommentsAuthors}}</t>
   </si>
 </sst>
 </file>
@@ -565,10 +571,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMD5"/>
+  <dimension ref="A1:AME5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -584,18 +590,18 @@
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="24.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="42.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="38" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.6640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="17" style="1" customWidth="1"/>
-    <col min="21" max="1018" width="10.6640625" style="1"/>
-    <col min="1019" max="1026" width="14.83203125" style="2" customWidth="1"/>
-    <col min="1027" max="16384" width="10.6640625" style="2"/>
+    <col min="14" max="15" width="12.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="38" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="31.6640625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="17" style="1" customWidth="1"/>
+    <col min="22" max="1019" width="10.6640625" style="1"/>
+    <col min="1020" max="1027" width="14.83203125" style="2" customWidth="1"/>
+    <col min="1028" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -618,8 +624,9 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="3" spans="1:20" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -663,25 +670,28 @@
         <v>12</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -725,25 +735,28 @@
         <v>30</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
